--- a/biology/Botanique/Jardin_botanique_d'Irkoutsk/Jardin_botanique_d'Irkoutsk.xlsx
+++ b/biology/Botanique/Jardin_botanique_d'Irkoutsk/Jardin_botanique_d'Irkoutsk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Irkoutsk</t>
+          <t>Jardin_botanique_d'Irkoutsk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique d'Irkoutsk (nom officiel en russe : Ботанический сад Иркутского государственного университета; jardin botanique de l'université d'État d'Irkoutsk) est un jardin botanique de 27 hectares appartenant à l'université d'Irkoutsk. C'est le seul jardin botanique de la région sibérienne du lac Baïkal dont il est distant de 70 kilomètres. Le code de reconnaissance international de ce jardin botanique membre de la BGCI  est BAIKL.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Irkoutsk</t>
+          <t>Jardin_botanique_d'Irkoutsk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique et collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été fondé en 1941 dans le but de protéger et d'enrichir la flore des environs du lac Baïkal.
 Il abrite plus de 3 000 taxons de plantes regroupés en :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Irkoutsk</t>
+          <t>Jardin_botanique_d'Irkoutsk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ru + de + en + fr) Site officiel du jardin botanique</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Irkoutsk</t>
+          <t>Jardin_botanique_d'Irkoutsk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Ботанический сад Иркутского государственного университета » (voir la liste des auteurs).
  Portail du jardinage et de l’horticulture   Portail de la botanique   Portail de la Sibérie   Portail de la Russie                  </t>
